--- a/storage/template/receipt_pdf.xlsx
+++ b/storage/template/receipt_pdf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seiya/Projects/Cryptel/Boff3/boff3/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A689CF-3101-4340-B624-CD780AA977CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406027F4-4175-5244-800D-8E7AEDDD308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1500" windowWidth="25600" windowHeight="15500" xr2:uid="{D22D7345-4540-1A49-A3EF-E3F2998DA283}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{D22D7345-4540-1A49-A3EF-E3F2998DA283}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,19 +166,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記の通り受領いたしました。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">カキノトオリ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ジュリョウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>金　額</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">キンガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記の正に受領いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カキノトオリ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">マサニ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ジュリョウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -795,8 +798,8 @@
   </sheetPr>
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -882,7 +885,7 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="12" customHeight="1"/>
@@ -903,7 +906,7 @@
     <row r="14" spans="2:10" ht="12" customHeight="1"/>
     <row r="15" spans="2:10" ht="23">
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>14</v>
